--- a/biology/Botanique/Hauberg/Hauberg.xlsx
+++ b/biology/Botanique/Hauberg/Hauberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Hauberg est un type de gestion forestière communale typique du Siegerland et des parties adjacentes des hautes terres de Lahn-Dill et du Westerwald en Allemagne centrale. Son objectif est de gérer la forêt afin de produire de l'écorce à tan et du charbon de bois pour l'industrie régionale du minerai de fer ainsi que du bois de chauffage. En plus des utilisations forestières, l'année suivant la récolte du bois, la zone a également des utilisations agricoles, telles que la culture du seigle et du sarrasin, typiques de l'agriculture itinérante, ainsi qu'ultérieurement le pâturage communal (biens communaux).
 </t>
@@ -511,7 +523,9 @@
           <t>Aperçu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Hauberg est une forêt de taillis de chênes et de bouleaux, dans laquelle d'autres arbres sont parfois dispersés. Avec un cycle de 16 à 20 ans, le Hauberg subit des coupes à blanc ou des recépages, laissant les souches en terre recommencer à pousser. Ce n'est que l'année suivant la coupe à blanc que la terre est utilisée pour le grain. Les années où il y a beaucoup de glands, des porcs sont élevés.
 Avec la baisse de la demande d'écorce et de charbon de bois, cette forme de gestion a perdu de son importance. Dans la seconde moitié du XXe siècle, de vastes étendues ont été confiées à la gestion en futaie. Les taillis restants sont presque exclusivement consacrés à la production de bois de chauffage et de bois industriel.
